--- a/biology/Zoologie/Dopasia/Dopasia.xlsx
+++ b/biology/Zoologie/Dopasia/Dopasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dopasia est un genre de sauriens de la famille des Anguidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dopasia est un genre de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'est de l'Asie du Sud, dans le sud de l'Asie de l'Est et en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'est de l'Asie du Sud, dans le sud de l'Asie de l'Est et en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 avril 2014) :
 Dopasia buettikoferi (Lidth De Jeude, 1905)
 Dopasia gracilis (Gray, 1845)
 Dopasia hainanensis (Yang, 1984)
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Gray, 1853 : Descriptions of some undescribed species of reptiles collected by Dr. Joseph Hooker in the Khassia Mountains, East Bengal, and Sikkim Himalaya. Annals and Magazine of Natural History, sér. 2, vol. 12, p. 386-392 (texte intégral)</t>
         </is>
